--- a/results/mp/deberta/corona/confidence/168/stop-words-topk-masking-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-topk-masking-0.35/avg_0.003_scores.xlsx
@@ -94,10 +94,10 @@
     <t>safe</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>love</t>
   </si>
   <si>
     <t>well</t>
@@ -1152,25 +1152,25 @@
         <v>26</v>
       </c>
       <c r="K11">
-        <v>0.6883116883116883</v>
+        <v>0.6739130434782609</v>
       </c>
       <c r="L11">
-        <v>159</v>
+        <v>31</v>
       </c>
       <c r="M11">
-        <v>167</v>
+        <v>31</v>
       </c>
       <c r="N11">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O11">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>72</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1178,13 +1178,13 @@
         <v>27</v>
       </c>
       <c r="K12">
-        <v>0.6739130434782609</v>
+        <v>0.6652719665271967</v>
       </c>
       <c r="L12">
-        <v>31</v>
+        <v>159</v>
       </c>
       <c r="M12">
-        <v>31</v>
+        <v>159</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>15</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1230,25 +1230,25 @@
         <v>29</v>
       </c>
       <c r="K14">
-        <v>0.6085626911314985</v>
+        <v>0.5852941176470589</v>
       </c>
       <c r="L14">
         <v>199</v>
       </c>
       <c r="M14">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="N14">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>128</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:17">
